--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-14.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="686">
   <si>
     <t>League</t>
   </si>
@@ -2072,816 +2072,6 @@
   </si>
   <si>
     <t>Tijuana</t>
-  </si>
-  <si>
-    <t>33174319</t>
-  </si>
-  <si>
-    <t>33165080</t>
-  </si>
-  <si>
-    <t>33177148</t>
-  </si>
-  <si>
-    <t>33189885</t>
-  </si>
-  <si>
-    <t>33181450</t>
-  </si>
-  <si>
-    <t>33181459</t>
-  </si>
-  <si>
-    <t>33174679</t>
-  </si>
-  <si>
-    <t>33158458</t>
-  </si>
-  <si>
-    <t>33170794</t>
-  </si>
-  <si>
-    <t>33177127</t>
-  </si>
-  <si>
-    <t>33189447</t>
-  </si>
-  <si>
-    <t>33157261</t>
-  </si>
-  <si>
-    <t>33184164</t>
-  </si>
-  <si>
-    <t>33184167</t>
-  </si>
-  <si>
-    <t>33184238</t>
-  </si>
-  <si>
-    <t>33183864</t>
-  </si>
-  <si>
-    <t>33155731</t>
-  </si>
-  <si>
-    <t>33155723</t>
-  </si>
-  <si>
-    <t>33174497</t>
-  </si>
-  <si>
-    <t>33185453</t>
-  </si>
-  <si>
-    <t>33177382</t>
-  </si>
-  <si>
-    <t>33174496</t>
-  </si>
-  <si>
-    <t>33190398</t>
-  </si>
-  <si>
-    <t>33119292</t>
-  </si>
-  <si>
-    <t>33082630</t>
-  </si>
-  <si>
-    <t>33082566</t>
-  </si>
-  <si>
-    <t>33082581</t>
-  </si>
-  <si>
-    <t>33082589</t>
-  </si>
-  <si>
-    <t>33174441</t>
-  </si>
-  <si>
-    <t>33173857</t>
-  </si>
-  <si>
-    <t>33174566</t>
-  </si>
-  <si>
-    <t>33082597</t>
-  </si>
-  <si>
-    <t>33176303</t>
-  </si>
-  <si>
-    <t>33157247</t>
-  </si>
-  <si>
-    <t>33177151</t>
-  </si>
-  <si>
-    <t>33174532</t>
-  </si>
-  <si>
-    <t>33177369</t>
-  </si>
-  <si>
-    <t>33192274</t>
-  </si>
-  <si>
-    <t>33181860</t>
-  </si>
-  <si>
-    <t>33082602</t>
-  </si>
-  <si>
-    <t>33185440</t>
-  </si>
-  <si>
-    <t>33177146</t>
-  </si>
-  <si>
-    <t>33177371</t>
-  </si>
-  <si>
-    <t>33174903</t>
-  </si>
-  <si>
-    <t>33174331</t>
-  </si>
-  <si>
-    <t>33190711</t>
-  </si>
-  <si>
-    <t>33174994</t>
-  </si>
-  <si>
-    <t>33155532</t>
-  </si>
-  <si>
-    <t>33155486</t>
-  </si>
-  <si>
-    <t>33181872</t>
-  </si>
-  <si>
-    <t>33177141</t>
-  </si>
-  <si>
-    <t>33185443</t>
-  </si>
-  <si>
-    <t>33174503</t>
-  </si>
-  <si>
-    <t>33155518</t>
-  </si>
-  <si>
-    <t>1.227296963</t>
-  </si>
-  <si>
-    <t>1.227113709</t>
-  </si>
-  <si>
-    <t>1.227350846</t>
-  </si>
-  <si>
-    <t>1.227588603</t>
-  </si>
-  <si>
-    <t>1.227419135</t>
-  </si>
-  <si>
-    <t>1.227418865</t>
-  </si>
-  <si>
-    <t>1.227306131</t>
-  </si>
-  <si>
-    <t>1.227009359</t>
-  </si>
-  <si>
-    <t>1.227219915</t>
-  </si>
-  <si>
-    <t>1.227350756</t>
-  </si>
-  <si>
-    <t>1.227540826</t>
-  </si>
-  <si>
-    <t>1.226980318</t>
-  </si>
-  <si>
-    <t>1.227456062</t>
-  </si>
-  <si>
-    <t>1.227456257</t>
-  </si>
-  <si>
-    <t>1.227456550</t>
-  </si>
-  <si>
-    <t>1.227452594</t>
-  </si>
-  <si>
-    <t>1.226953594</t>
-  </si>
-  <si>
-    <t>1.226954434</t>
-  </si>
-  <si>
-    <t>1.227301107</t>
-  </si>
-  <si>
-    <t>1.227477284</t>
-  </si>
-  <si>
-    <t>1.227354345</t>
-  </si>
-  <si>
-    <t>1.227303424</t>
-  </si>
-  <si>
-    <t>1.227557446</t>
-  </si>
-  <si>
-    <t>1.226335443</t>
-  </si>
-  <si>
-    <t>1.225754182</t>
-  </si>
-  <si>
-    <t>1.225753422</t>
-  </si>
-  <si>
-    <t>1.225753314</t>
-  </si>
-  <si>
-    <t>1.225753206</t>
-  </si>
-  <si>
-    <t>1.227298962</t>
-  </si>
-  <si>
-    <t>1.227288570</t>
-  </si>
-  <si>
-    <t>1.227303334</t>
-  </si>
-  <si>
-    <t>1.225752990</t>
-  </si>
-  <si>
-    <t>1.227335705</t>
-  </si>
-  <si>
-    <t>1.226979341</t>
-  </si>
-  <si>
-    <t>1.227351026</t>
-  </si>
-  <si>
-    <t>1.227303516</t>
-  </si>
-  <si>
-    <t>1.227353645</t>
-  </si>
-  <si>
-    <t>1.227595868</t>
-  </si>
-  <si>
-    <t>1.227425116</t>
-  </si>
-  <si>
-    <t>1.225754398</t>
-  </si>
-  <si>
-    <t>1.227477014</t>
-  </si>
-  <si>
-    <t>1.227351116</t>
-  </si>
-  <si>
-    <t>1.227353464</t>
-  </si>
-  <si>
-    <t>1.227308201</t>
-  </si>
-  <si>
-    <t>1.227299072</t>
-  </si>
-  <si>
-    <t>1.227577817</t>
-  </si>
-  <si>
-    <t>1.227308851</t>
-  </si>
-  <si>
-    <t>1.226947513</t>
-  </si>
-  <si>
-    <t>1.226947153</t>
-  </si>
-  <si>
-    <t>1.227425446</t>
-  </si>
-  <si>
-    <t>1.227351206</t>
-  </si>
-  <si>
-    <t>1.227477104</t>
-  </si>
-  <si>
-    <t>1.227303606</t>
-  </si>
-  <si>
-    <t>1.226947333</t>
-  </si>
-  <si>
-    <t>1.227297008</t>
-  </si>
-  <si>
-    <t>1.227113754</t>
-  </si>
-  <si>
-    <t>1.227350891</t>
-  </si>
-  <si>
-    <t>1.227588606</t>
-  </si>
-  <si>
-    <t>1.227419180</t>
-  </si>
-  <si>
-    <t>1.227418910</t>
-  </si>
-  <si>
-    <t>1.227306176</t>
-  </si>
-  <si>
-    <t>1.227009404</t>
-  </si>
-  <si>
-    <t>1.227219925</t>
-  </si>
-  <si>
-    <t>1.227350801</t>
-  </si>
-  <si>
-    <t>1.227540871</t>
-  </si>
-  <si>
-    <t>1.226980328</t>
-  </si>
-  <si>
-    <t>1.227456107</t>
-  </si>
-  <si>
-    <t>1.227456260</t>
-  </si>
-  <si>
-    <t>1.227456595</t>
-  </si>
-  <si>
-    <t>1.227452639</t>
-  </si>
-  <si>
-    <t>1.226953578</t>
-  </si>
-  <si>
-    <t>1.226954418</t>
-  </si>
-  <si>
-    <t>1.227301117</t>
-  </si>
-  <si>
-    <t>1.227477329</t>
-  </si>
-  <si>
-    <t>1.227354390</t>
-  </si>
-  <si>
-    <t>1.227303469</t>
-  </si>
-  <si>
-    <t>1.227557491</t>
-  </si>
-  <si>
-    <t>1.226335427</t>
-  </si>
-  <si>
-    <t>1.225754192</t>
-  </si>
-  <si>
-    <t>1.225753432</t>
-  </si>
-  <si>
-    <t>1.225753324</t>
-  </si>
-  <si>
-    <t>1.225753216</t>
-  </si>
-  <si>
-    <t>1.227299007</t>
-  </si>
-  <si>
-    <t>1.227288580</t>
-  </si>
-  <si>
-    <t>1.227303379</t>
-  </si>
-  <si>
-    <t>1.225753000</t>
-  </si>
-  <si>
-    <t>1.227335750</t>
-  </si>
-  <si>
-    <t>1.226979351</t>
-  </si>
-  <si>
-    <t>1.227351071</t>
-  </si>
-  <si>
-    <t>1.227303561</t>
-  </si>
-  <si>
-    <t>1.227353690</t>
-  </si>
-  <si>
-    <t>1.227595913</t>
-  </si>
-  <si>
-    <t>1.227425161</t>
-  </si>
-  <si>
-    <t>1.225754408</t>
-  </si>
-  <si>
-    <t>1.227477059</t>
-  </si>
-  <si>
-    <t>1.227351161</t>
-  </si>
-  <si>
-    <t>1.227353509</t>
-  </si>
-  <si>
-    <t>1.227308246</t>
-  </si>
-  <si>
-    <t>1.227299117</t>
-  </si>
-  <si>
-    <t>1.227577862</t>
-  </si>
-  <si>
-    <t>1.227308896</t>
-  </si>
-  <si>
-    <t>1.226947558</t>
-  </si>
-  <si>
-    <t>1.226947198</t>
-  </si>
-  <si>
-    <t>1.227425491</t>
-  </si>
-  <si>
-    <t>1.227351251</t>
-  </si>
-  <si>
-    <t>1.227477149</t>
-  </si>
-  <si>
-    <t>1.227303651</t>
-  </si>
-  <si>
-    <t>1.226947378</t>
-  </si>
-  <si>
-    <t>1.227297047</t>
-  </si>
-  <si>
-    <t>1.227113793</t>
-  </si>
-  <si>
-    <t>1.227350930</t>
-  </si>
-  <si>
-    <t>1.227588650</t>
-  </si>
-  <si>
-    <t>1.227419219</t>
-  </si>
-  <si>
-    <t>1.227418949</t>
-  </si>
-  <si>
-    <t>1.227306215</t>
-  </si>
-  <si>
-    <t>1.227009443</t>
-  </si>
-  <si>
-    <t>1.227219914</t>
-  </si>
-  <si>
-    <t>1.227350840</t>
-  </si>
-  <si>
-    <t>1.227540910</t>
-  </si>
-  <si>
-    <t>1.226980317</t>
-  </si>
-  <si>
-    <t>1.227456146</t>
-  </si>
-  <si>
-    <t>1.227456304</t>
-  </si>
-  <si>
-    <t>1.227456634</t>
-  </si>
-  <si>
-    <t>1.227452678</t>
-  </si>
-  <si>
-    <t>1.226953593</t>
-  </si>
-  <si>
-    <t>1.226954433</t>
-  </si>
-  <si>
-    <t>1.227301106</t>
-  </si>
-  <si>
-    <t>1.227477368</t>
-  </si>
-  <si>
-    <t>1.227354429</t>
-  </si>
-  <si>
-    <t>1.227303508</t>
-  </si>
-  <si>
-    <t>1.227557530</t>
-  </si>
-  <si>
-    <t>1.226335442</t>
-  </si>
-  <si>
-    <t>1.225754181</t>
-  </si>
-  <si>
-    <t>1.225753421</t>
-  </si>
-  <si>
-    <t>1.225753313</t>
-  </si>
-  <si>
-    <t>1.225753205</t>
-  </si>
-  <si>
-    <t>1.227299047</t>
-  </si>
-  <si>
-    <t>1.227288569</t>
-  </si>
-  <si>
-    <t>1.227303418</t>
-  </si>
-  <si>
-    <t>1.225752989</t>
-  </si>
-  <si>
-    <t>1.227335789</t>
-  </si>
-  <si>
-    <t>1.226979340</t>
-  </si>
-  <si>
-    <t>1.227351110</t>
-  </si>
-  <si>
-    <t>1.227303600</t>
-  </si>
-  <si>
-    <t>1.227353729</t>
-  </si>
-  <si>
-    <t>1.227595952</t>
-  </si>
-  <si>
-    <t>1.227425200</t>
-  </si>
-  <si>
-    <t>1.225754397</t>
-  </si>
-  <si>
-    <t>1.227477098</t>
-  </si>
-  <si>
-    <t>1.227351200</t>
-  </si>
-  <si>
-    <t>1.227353548</t>
-  </si>
-  <si>
-    <t>1.227308285</t>
-  </si>
-  <si>
-    <t>1.227299156</t>
-  </si>
-  <si>
-    <t>1.227577901</t>
-  </si>
-  <si>
-    <t>1.227308935</t>
-  </si>
-  <si>
-    <t>1.226947597</t>
-  </si>
-  <si>
-    <t>1.226947237</t>
-  </si>
-  <si>
-    <t>1.227425530</t>
-  </si>
-  <si>
-    <t>1.227351290</t>
-  </si>
-  <si>
-    <t>1.227477188</t>
-  </si>
-  <si>
-    <t>1.227303690</t>
-  </si>
-  <si>
-    <t>1.226947417</t>
-  </si>
-  <si>
-    <t>1.227296972</t>
-  </si>
-  <si>
-    <t>1.227113718</t>
-  </si>
-  <si>
-    <t>1.227350855</t>
-  </si>
-  <si>
-    <t>1.227588651</t>
-  </si>
-  <si>
-    <t>1.227419144</t>
-  </si>
-  <si>
-    <t>1.227418874</t>
-  </si>
-  <si>
-    <t>1.227306140</t>
-  </si>
-  <si>
-    <t>1.227009368</t>
-  </si>
-  <si>
-    <t>1.227219924</t>
-  </si>
-  <si>
-    <t>1.227350765</t>
-  </si>
-  <si>
-    <t>1.227540835</t>
-  </si>
-  <si>
-    <t>1.226980327</t>
-  </si>
-  <si>
-    <t>1.227456071</t>
-  </si>
-  <si>
-    <t>1.227456305</t>
-  </si>
-  <si>
-    <t>1.227456559</t>
-  </si>
-  <si>
-    <t>1.227452603</t>
-  </si>
-  <si>
-    <t>1.226953603</t>
-  </si>
-  <si>
-    <t>1.226954443</t>
-  </si>
-  <si>
-    <t>1.227301116</t>
-  </si>
-  <si>
-    <t>1.227477293</t>
-  </si>
-  <si>
-    <t>1.227354354</t>
-  </si>
-  <si>
-    <t>1.227303433</t>
-  </si>
-  <si>
-    <t>1.227557455</t>
-  </si>
-  <si>
-    <t>1.226335452</t>
-  </si>
-  <si>
-    <t>1.225754191</t>
-  </si>
-  <si>
-    <t>1.225753431</t>
-  </si>
-  <si>
-    <t>1.225753323</t>
-  </si>
-  <si>
-    <t>1.225753215</t>
-  </si>
-  <si>
-    <t>1.227298971</t>
-  </si>
-  <si>
-    <t>1.227288579</t>
-  </si>
-  <si>
-    <t>1.227303343</t>
-  </si>
-  <si>
-    <t>1.225752999</t>
-  </si>
-  <si>
-    <t>1.227335714</t>
-  </si>
-  <si>
-    <t>1.226979350</t>
-  </si>
-  <si>
-    <t>1.227351035</t>
-  </si>
-  <si>
-    <t>1.227303525</t>
-  </si>
-  <si>
-    <t>1.227353654</t>
-  </si>
-  <si>
-    <t>1.227595877</t>
-  </si>
-  <si>
-    <t>1.227425125</t>
-  </si>
-  <si>
-    <t>1.225754407</t>
-  </si>
-  <si>
-    <t>1.227477023</t>
-  </si>
-  <si>
-    <t>1.227351125</t>
-  </si>
-  <si>
-    <t>1.227353473</t>
-  </si>
-  <si>
-    <t>1.227308210</t>
-  </si>
-  <si>
-    <t>1.227299081</t>
-  </si>
-  <si>
-    <t>1.227577826</t>
-  </si>
-  <si>
-    <t>1.227308860</t>
-  </si>
-  <si>
-    <t>1.226947522</t>
-  </si>
-  <si>
-    <t>1.226947162</t>
-  </si>
-  <si>
-    <t>1.227425455</t>
-  </si>
-  <si>
-    <t>1.227351215</t>
-  </si>
-  <si>
-    <t>1.227477113</t>
-  </si>
-  <si>
-    <t>1.227303615</t>
-  </si>
-  <si>
-    <t>1.226947342</t>
   </si>
 </sst>
 </file>
@@ -41438,8 +40628,8 @@
       <c r="BE194">
         <v>1000</v>
       </c>
-      <c r="BF194" t="s">
-        <v>686</v>
+      <c r="BF194">
+        <v>33174319</v>
       </c>
       <c r="BG194">
         <v>5763643</v>
@@ -41450,17 +40640,17 @@
       <c r="BI194">
         <v>58805</v>
       </c>
-      <c r="BJ194" t="s">
-        <v>740</v>
-      </c>
-      <c r="BK194" t="s">
-        <v>794</v>
-      </c>
-      <c r="BL194" t="s">
-        <v>848</v>
-      </c>
-      <c r="BM194" t="s">
-        <v>902</v>
+      <c r="BJ194">
+        <v>1.227296963</v>
+      </c>
+      <c r="BK194">
+        <v>1.227297008</v>
+      </c>
+      <c r="BL194">
+        <v>1.227297047</v>
+      </c>
+      <c r="BM194">
+        <v>1.227296972</v>
       </c>
     </row>
     <row r="195" spans="1:65">
@@ -41635,8 +40825,8 @@
       <c r="BE195">
         <v>1000</v>
       </c>
-      <c r="BF195" t="s">
-        <v>687</v>
+      <c r="BF195">
+        <v>33165080</v>
       </c>
       <c r="BG195">
         <v>10758</v>
@@ -41647,17 +40837,17 @@
       <c r="BI195">
         <v>58805</v>
       </c>
-      <c r="BJ195" t="s">
-        <v>741</v>
-      </c>
-      <c r="BK195" t="s">
-        <v>795</v>
-      </c>
-      <c r="BL195" t="s">
-        <v>849</v>
-      </c>
-      <c r="BM195" t="s">
-        <v>903</v>
+      <c r="BJ195">
+        <v>1.227113709</v>
+      </c>
+      <c r="BK195">
+        <v>1.227113754</v>
+      </c>
+      <c r="BL195">
+        <v>1.227113793</v>
+      </c>
+      <c r="BM195">
+        <v>1.227113718</v>
       </c>
     </row>
     <row r="196" spans="1:65">
@@ -41832,8 +41022,8 @@
       <c r="BE196">
         <v>1000</v>
       </c>
-      <c r="BF196" t="s">
-        <v>688</v>
+      <c r="BF196">
+        <v>33177148</v>
       </c>
       <c r="BG196">
         <v>1222679</v>
@@ -41844,17 +41034,17 @@
       <c r="BI196">
         <v>58805</v>
       </c>
-      <c r="BJ196" t="s">
-        <v>742</v>
-      </c>
-      <c r="BK196" t="s">
-        <v>796</v>
-      </c>
-      <c r="BL196" t="s">
-        <v>850</v>
-      </c>
-      <c r="BM196" t="s">
-        <v>904</v>
+      <c r="BJ196">
+        <v>1.227350846</v>
+      </c>
+      <c r="BK196">
+        <v>1.227350891</v>
+      </c>
+      <c r="BL196">
+        <v>1.22735093</v>
+      </c>
+      <c r="BM196">
+        <v>1.227350855</v>
       </c>
     </row>
     <row r="197" spans="1:65">
@@ -42029,8 +41219,8 @@
       <c r="BE197">
         <v>1000</v>
       </c>
-      <c r="BF197" t="s">
-        <v>689</v>
+      <c r="BF197">
+        <v>33189885</v>
       </c>
       <c r="BG197">
         <v>180585</v>
@@ -42041,17 +41231,17 @@
       <c r="BI197">
         <v>58805</v>
       </c>
-      <c r="BJ197" t="s">
-        <v>743</v>
-      </c>
-      <c r="BK197" t="s">
-        <v>797</v>
-      </c>
-      <c r="BL197" t="s">
-        <v>851</v>
-      </c>
-      <c r="BM197" t="s">
-        <v>905</v>
+      <c r="BJ197">
+        <v>1.227588603</v>
+      </c>
+      <c r="BK197">
+        <v>1.227588606</v>
+      </c>
+      <c r="BL197">
+        <v>1.22758865</v>
+      </c>
+      <c r="BM197">
+        <v>1.227588651</v>
       </c>
     </row>
     <row r="198" spans="1:65">
@@ -42226,8 +41416,8 @@
       <c r="BE198">
         <v>1000</v>
       </c>
-      <c r="BF198" t="s">
-        <v>690</v>
+      <c r="BF198">
+        <v>33181450</v>
       </c>
       <c r="BG198">
         <v>8916596</v>
@@ -42238,17 +41428,17 @@
       <c r="BI198">
         <v>58805</v>
       </c>
-      <c r="BJ198" t="s">
-        <v>744</v>
-      </c>
-      <c r="BK198" t="s">
-        <v>798</v>
-      </c>
-      <c r="BL198" t="s">
-        <v>852</v>
-      </c>
-      <c r="BM198" t="s">
-        <v>906</v>
+      <c r="BJ198">
+        <v>1.227419135</v>
+      </c>
+      <c r="BK198">
+        <v>1.22741918</v>
+      </c>
+      <c r="BL198">
+        <v>1.227419219</v>
+      </c>
+      <c r="BM198">
+        <v>1.227419144</v>
       </c>
     </row>
     <row r="199" spans="1:65">
@@ -42423,8 +41613,8 @@
       <c r="BE199">
         <v>1000</v>
       </c>
-      <c r="BF199" t="s">
-        <v>691</v>
+      <c r="BF199">
+        <v>33181459</v>
       </c>
       <c r="BG199">
         <v>7747297</v>
@@ -42435,17 +41625,17 @@
       <c r="BI199">
         <v>58805</v>
       </c>
-      <c r="BJ199" t="s">
-        <v>745</v>
-      </c>
-      <c r="BK199" t="s">
-        <v>799</v>
-      </c>
-      <c r="BL199" t="s">
-        <v>853</v>
-      </c>
-      <c r="BM199" t="s">
-        <v>907</v>
+      <c r="BJ199">
+        <v>1.227418865</v>
+      </c>
+      <c r="BK199">
+        <v>1.22741891</v>
+      </c>
+      <c r="BL199">
+        <v>1.227418949</v>
+      </c>
+      <c r="BM199">
+        <v>1.227418874</v>
       </c>
     </row>
     <row r="200" spans="1:65">
@@ -42620,8 +41810,8 @@
       <c r="BE200">
         <v>1000</v>
       </c>
-      <c r="BF200" t="s">
-        <v>692</v>
+      <c r="BF200">
+        <v>33174679</v>
       </c>
       <c r="BG200">
         <v>7005170</v>
@@ -42632,17 +41822,17 @@
       <c r="BI200">
         <v>58805</v>
       </c>
-      <c r="BJ200" t="s">
-        <v>746</v>
-      </c>
-      <c r="BK200" t="s">
-        <v>800</v>
-      </c>
-      <c r="BL200" t="s">
-        <v>854</v>
-      </c>
-      <c r="BM200" t="s">
-        <v>908</v>
+      <c r="BJ200">
+        <v>1.227306131</v>
+      </c>
+      <c r="BK200">
+        <v>1.227306176</v>
+      </c>
+      <c r="BL200">
+        <v>1.227306215</v>
+      </c>
+      <c r="BM200">
+        <v>1.22730614</v>
       </c>
     </row>
     <row r="201" spans="1:65">
@@ -42817,8 +42007,8 @@
       <c r="BE201">
         <v>1000</v>
       </c>
-      <c r="BF201" t="s">
-        <v>693</v>
+      <c r="BF201">
+        <v>33158458</v>
       </c>
       <c r="BG201">
         <v>1193695</v>
@@ -42829,17 +42019,17 @@
       <c r="BI201">
         <v>58805</v>
       </c>
-      <c r="BJ201" t="s">
-        <v>747</v>
-      </c>
-      <c r="BK201" t="s">
-        <v>801</v>
-      </c>
-      <c r="BL201" t="s">
-        <v>855</v>
-      </c>
-      <c r="BM201" t="s">
-        <v>909</v>
+      <c r="BJ201">
+        <v>1.227009359</v>
+      </c>
+      <c r="BK201">
+        <v>1.227009404</v>
+      </c>
+      <c r="BL201">
+        <v>1.227009443</v>
+      </c>
+      <c r="BM201">
+        <v>1.227009368</v>
       </c>
     </row>
     <row r="202" spans="1:65">
@@ -43014,8 +42204,8 @@
       <c r="BE202">
         <v>980</v>
       </c>
-      <c r="BF202" t="s">
-        <v>694</v>
+      <c r="BF202">
+        <v>33170794</v>
       </c>
       <c r="BG202">
         <v>48456</v>
@@ -43026,17 +42216,17 @@
       <c r="BI202">
         <v>58805</v>
       </c>
-      <c r="BJ202" t="s">
-        <v>748</v>
-      </c>
-      <c r="BK202" t="s">
-        <v>802</v>
-      </c>
-      <c r="BL202" t="s">
-        <v>856</v>
-      </c>
-      <c r="BM202" t="s">
-        <v>910</v>
+      <c r="BJ202">
+        <v>1.227219915</v>
+      </c>
+      <c r="BK202">
+        <v>1.227219925</v>
+      </c>
+      <c r="BL202">
+        <v>1.227219914</v>
+      </c>
+      <c r="BM202">
+        <v>1.227219924</v>
       </c>
     </row>
     <row r="203" spans="1:65">
@@ -43211,8 +42401,8 @@
       <c r="BE203">
         <v>1000</v>
       </c>
-      <c r="BF203" t="s">
-        <v>695</v>
+      <c r="BF203">
+        <v>33177127</v>
       </c>
       <c r="BG203">
         <v>5535792</v>
@@ -43223,17 +42413,17 @@
       <c r="BI203">
         <v>58805</v>
       </c>
-      <c r="BJ203" t="s">
-        <v>749</v>
-      </c>
-      <c r="BK203" t="s">
-        <v>803</v>
-      </c>
-      <c r="BL203" t="s">
-        <v>857</v>
-      </c>
-      <c r="BM203" t="s">
-        <v>911</v>
+      <c r="BJ203">
+        <v>1.227350756</v>
+      </c>
+      <c r="BK203">
+        <v>1.227350801</v>
+      </c>
+      <c r="BL203">
+        <v>1.22735084</v>
+      </c>
+      <c r="BM203">
+        <v>1.227350765</v>
       </c>
     </row>
     <row r="204" spans="1:65">
@@ -43408,8 +42598,8 @@
       <c r="BE204">
         <v>1000</v>
       </c>
-      <c r="BF204" t="s">
-        <v>696</v>
+      <c r="BF204">
+        <v>33189447</v>
       </c>
       <c r="BG204">
         <v>503208</v>
@@ -43420,17 +42610,17 @@
       <c r="BI204">
         <v>58805</v>
       </c>
-      <c r="BJ204" t="s">
-        <v>750</v>
-      </c>
-      <c r="BK204" t="s">
-        <v>804</v>
-      </c>
-      <c r="BL204" t="s">
-        <v>858</v>
-      </c>
-      <c r="BM204" t="s">
-        <v>912</v>
+      <c r="BJ204">
+        <v>1.227540826</v>
+      </c>
+      <c r="BK204">
+        <v>1.227540871</v>
+      </c>
+      <c r="BL204">
+        <v>1.22754091</v>
+      </c>
+      <c r="BM204">
+        <v>1.227540835</v>
       </c>
     </row>
     <row r="205" spans="1:65">
@@ -43605,8 +42795,8 @@
       <c r="BE205">
         <v>850</v>
       </c>
-      <c r="BF205" t="s">
-        <v>697</v>
+      <c r="BF205">
+        <v>33157261</v>
       </c>
       <c r="BG205">
         <v>12592557</v>
@@ -43617,17 +42807,17 @@
       <c r="BI205">
         <v>58805</v>
       </c>
-      <c r="BJ205" t="s">
-        <v>751</v>
-      </c>
-      <c r="BK205" t="s">
-        <v>805</v>
-      </c>
-      <c r="BL205" t="s">
-        <v>859</v>
-      </c>
-      <c r="BM205" t="s">
-        <v>913</v>
+      <c r="BJ205">
+        <v>1.226980318</v>
+      </c>
+      <c r="BK205">
+        <v>1.226980328</v>
+      </c>
+      <c r="BL205">
+        <v>1.226980317</v>
+      </c>
+      <c r="BM205">
+        <v>1.226980327</v>
       </c>
     </row>
     <row r="206" spans="1:65">
@@ -43802,8 +42992,8 @@
       <c r="BE206">
         <v>1000</v>
       </c>
-      <c r="BF206" t="s">
-        <v>698</v>
+      <c r="BF206">
+        <v>33184164</v>
       </c>
       <c r="BG206">
         <v>201262</v>
@@ -43814,17 +43004,17 @@
       <c r="BI206">
         <v>58805</v>
       </c>
-      <c r="BJ206" t="s">
-        <v>752</v>
-      </c>
-      <c r="BK206" t="s">
-        <v>806</v>
-      </c>
-      <c r="BL206" t="s">
-        <v>860</v>
-      </c>
-      <c r="BM206" t="s">
-        <v>914</v>
+      <c r="BJ206">
+        <v>1.227456062</v>
+      </c>
+      <c r="BK206">
+        <v>1.227456107</v>
+      </c>
+      <c r="BL206">
+        <v>1.227456146</v>
+      </c>
+      <c r="BM206">
+        <v>1.227456071</v>
       </c>
     </row>
     <row r="207" spans="1:65">
@@ -43999,8 +43189,8 @@
       <c r="BE207">
         <v>1000</v>
       </c>
-      <c r="BF207" t="s">
-        <v>699</v>
+      <c r="BF207">
+        <v>33184167</v>
       </c>
       <c r="BG207">
         <v>14926646</v>
@@ -44011,17 +43201,17 @@
       <c r="BI207">
         <v>58805</v>
       </c>
-      <c r="BJ207" t="s">
-        <v>753</v>
-      </c>
-      <c r="BK207" t="s">
-        <v>807</v>
-      </c>
-      <c r="BL207" t="s">
-        <v>861</v>
-      </c>
-      <c r="BM207" t="s">
-        <v>915</v>
+      <c r="BJ207">
+        <v>1.227456257</v>
+      </c>
+      <c r="BK207">
+        <v>1.22745626</v>
+      </c>
+      <c r="BL207">
+        <v>1.227456304</v>
+      </c>
+      <c r="BM207">
+        <v>1.227456305</v>
       </c>
     </row>
     <row r="208" spans="1:65">
@@ -44196,8 +43386,8 @@
       <c r="BE208">
         <v>1000</v>
       </c>
-      <c r="BF208" t="s">
-        <v>700</v>
+      <c r="BF208">
+        <v>33184238</v>
       </c>
       <c r="BG208">
         <v>10284167</v>
@@ -44208,17 +43398,17 @@
       <c r="BI208">
         <v>58805</v>
       </c>
-      <c r="BJ208" t="s">
-        <v>754</v>
-      </c>
-      <c r="BK208" t="s">
-        <v>808</v>
-      </c>
-      <c r="BL208" t="s">
-        <v>862</v>
-      </c>
-      <c r="BM208" t="s">
-        <v>916</v>
+      <c r="BJ208">
+        <v>1.22745655</v>
+      </c>
+      <c r="BK208">
+        <v>1.227456595</v>
+      </c>
+      <c r="BL208">
+        <v>1.227456634</v>
+      </c>
+      <c r="BM208">
+        <v>1.227456559</v>
       </c>
     </row>
     <row r="209" spans="1:65">
@@ -44393,8 +43583,8 @@
       <c r="BE209">
         <v>1000</v>
       </c>
-      <c r="BF209" t="s">
-        <v>701</v>
+      <c r="BF209">
+        <v>33183864</v>
       </c>
       <c r="BG209">
         <v>20089186</v>
@@ -44405,17 +43595,17 @@
       <c r="BI209">
         <v>58805</v>
       </c>
-      <c r="BJ209" t="s">
-        <v>755</v>
-      </c>
-      <c r="BK209" t="s">
-        <v>809</v>
-      </c>
-      <c r="BL209" t="s">
-        <v>863</v>
-      </c>
-      <c r="BM209" t="s">
-        <v>917</v>
+      <c r="BJ209">
+        <v>1.227452594</v>
+      </c>
+      <c r="BK209">
+        <v>1.227452639</v>
+      </c>
+      <c r="BL209">
+        <v>1.227452678</v>
+      </c>
+      <c r="BM209">
+        <v>1.227452603</v>
       </c>
     </row>
     <row r="210" spans="1:65">
@@ -44590,8 +43780,8 @@
       <c r="BE210">
         <v>1000</v>
       </c>
-      <c r="BF210" t="s">
-        <v>702</v>
+      <c r="BF210">
+        <v>33155731</v>
       </c>
       <c r="BG210">
         <v>55271</v>
@@ -44602,17 +43792,17 @@
       <c r="BI210">
         <v>58805</v>
       </c>
-      <c r="BJ210" t="s">
-        <v>756</v>
-      </c>
-      <c r="BK210" t="s">
-        <v>810</v>
-      </c>
-      <c r="BL210" t="s">
-        <v>864</v>
-      </c>
-      <c r="BM210" t="s">
-        <v>918</v>
+      <c r="BJ210">
+        <v>1.226953594</v>
+      </c>
+      <c r="BK210">
+        <v>1.226953578</v>
+      </c>
+      <c r="BL210">
+        <v>1.226953593</v>
+      </c>
+      <c r="BM210">
+        <v>1.226953603</v>
       </c>
     </row>
     <row r="211" spans="1:65">
@@ -44787,8 +43977,8 @@
       <c r="BE211">
         <v>1000</v>
       </c>
-      <c r="BF211" t="s">
-        <v>703</v>
+      <c r="BF211">
+        <v>33155723</v>
       </c>
       <c r="BG211">
         <v>63347</v>
@@ -44799,17 +43989,17 @@
       <c r="BI211">
         <v>58805</v>
       </c>
-      <c r="BJ211" t="s">
-        <v>757</v>
-      </c>
-      <c r="BK211" t="s">
-        <v>811</v>
-      </c>
-      <c r="BL211" t="s">
-        <v>865</v>
-      </c>
-      <c r="BM211" t="s">
-        <v>919</v>
+      <c r="BJ211">
+        <v>1.226954434</v>
+      </c>
+      <c r="BK211">
+        <v>1.226954418</v>
+      </c>
+      <c r="BL211">
+        <v>1.226954433</v>
+      </c>
+      <c r="BM211">
+        <v>1.226954443</v>
       </c>
     </row>
     <row r="212" spans="1:65">
@@ -44984,8 +44174,8 @@
       <c r="BE212">
         <v>1000</v>
       </c>
-      <c r="BF212" t="s">
-        <v>704</v>
+      <c r="BF212">
+        <v>33174497</v>
       </c>
       <c r="BG212">
         <v>10478536</v>
@@ -44996,17 +44186,17 @@
       <c r="BI212">
         <v>58805</v>
       </c>
-      <c r="BJ212" t="s">
-        <v>758</v>
-      </c>
-      <c r="BK212" t="s">
-        <v>812</v>
-      </c>
-      <c r="BL212" t="s">
-        <v>866</v>
-      </c>
-      <c r="BM212" t="s">
-        <v>920</v>
+      <c r="BJ212">
+        <v>1.227301107</v>
+      </c>
+      <c r="BK212">
+        <v>1.227301117</v>
+      </c>
+      <c r="BL212">
+        <v>1.227301106</v>
+      </c>
+      <c r="BM212">
+        <v>1.227301116</v>
       </c>
     </row>
     <row r="213" spans="1:65">
@@ -45181,8 +44371,8 @@
       <c r="BE213">
         <v>1000</v>
       </c>
-      <c r="BF213" t="s">
-        <v>705</v>
+      <c r="BF213">
+        <v>33185453</v>
       </c>
       <c r="BG213">
         <v>46783501</v>
@@ -45193,17 +44383,17 @@
       <c r="BI213">
         <v>58805</v>
       </c>
-      <c r="BJ213" t="s">
-        <v>759</v>
-      </c>
-      <c r="BK213" t="s">
-        <v>813</v>
-      </c>
-      <c r="BL213" t="s">
-        <v>867</v>
-      </c>
-      <c r="BM213" t="s">
-        <v>921</v>
+      <c r="BJ213">
+        <v>1.227477284</v>
+      </c>
+      <c r="BK213">
+        <v>1.227477329</v>
+      </c>
+      <c r="BL213">
+        <v>1.227477368</v>
+      </c>
+      <c r="BM213">
+        <v>1.227477293</v>
       </c>
     </row>
     <row r="214" spans="1:65">
@@ -45378,8 +44568,8 @@
       <c r="BE214">
         <v>1000</v>
       </c>
-      <c r="BF214" t="s">
-        <v>706</v>
+      <c r="BF214">
+        <v>33177382</v>
       </c>
       <c r="BG214">
         <v>5971606</v>
@@ -45390,17 +44580,17 @@
       <c r="BI214">
         <v>58805</v>
       </c>
-      <c r="BJ214" t="s">
-        <v>760</v>
-      </c>
-      <c r="BK214" t="s">
-        <v>814</v>
-      </c>
-      <c r="BL214" t="s">
-        <v>868</v>
-      </c>
-      <c r="BM214" t="s">
-        <v>922</v>
+      <c r="BJ214">
+        <v>1.227354345</v>
+      </c>
+      <c r="BK214">
+        <v>1.22735439</v>
+      </c>
+      <c r="BL214">
+        <v>1.227354429</v>
+      </c>
+      <c r="BM214">
+        <v>1.227354354</v>
       </c>
     </row>
     <row r="215" spans="1:65">
@@ -45575,8 +44765,8 @@
       <c r="BE215">
         <v>1000</v>
       </c>
-      <c r="BF215" t="s">
-        <v>707</v>
+      <c r="BF215">
+        <v>33174496</v>
       </c>
       <c r="BG215">
         <v>3303740</v>
@@ -45587,17 +44777,17 @@
       <c r="BI215">
         <v>58805</v>
       </c>
-      <c r="BJ215" t="s">
-        <v>761</v>
-      </c>
-      <c r="BK215" t="s">
-        <v>815</v>
-      </c>
-      <c r="BL215" t="s">
-        <v>869</v>
-      </c>
-      <c r="BM215" t="s">
-        <v>923</v>
+      <c r="BJ215">
+        <v>1.227303424</v>
+      </c>
+      <c r="BK215">
+        <v>1.227303469</v>
+      </c>
+      <c r="BL215">
+        <v>1.227303508</v>
+      </c>
+      <c r="BM215">
+        <v>1.227303433</v>
       </c>
     </row>
     <row r="216" spans="1:65">
@@ -45772,8 +44962,8 @@
       <c r="BE216">
         <v>1000</v>
       </c>
-      <c r="BF216" t="s">
-        <v>708</v>
+      <c r="BF216">
+        <v>33190398</v>
       </c>
       <c r="BG216">
         <v>10992747</v>
@@ -45784,17 +44974,17 @@
       <c r="BI216">
         <v>58805</v>
       </c>
-      <c r="BJ216" t="s">
-        <v>762</v>
-      </c>
-      <c r="BK216" t="s">
-        <v>816</v>
-      </c>
-      <c r="BL216" t="s">
-        <v>870</v>
-      </c>
-      <c r="BM216" t="s">
-        <v>924</v>
+      <c r="BJ216">
+        <v>1.227557446</v>
+      </c>
+      <c r="BK216">
+        <v>1.227557491</v>
+      </c>
+      <c r="BL216">
+        <v>1.22755753</v>
+      </c>
+      <c r="BM216">
+        <v>1.227557455</v>
       </c>
     </row>
     <row r="217" spans="1:65">
@@ -45969,8 +45159,8 @@
       <c r="BE217">
         <v>1000</v>
       </c>
-      <c r="BF217" t="s">
-        <v>709</v>
+      <c r="BF217">
+        <v>33119292</v>
       </c>
       <c r="BG217">
         <v>18573</v>
@@ -45981,17 +45171,17 @@
       <c r="BI217">
         <v>58805</v>
       </c>
-      <c r="BJ217" t="s">
-        <v>763</v>
-      </c>
-      <c r="BK217" t="s">
-        <v>817</v>
-      </c>
-      <c r="BL217" t="s">
-        <v>871</v>
-      </c>
-      <c r="BM217" t="s">
-        <v>925</v>
+      <c r="BJ217">
+        <v>1.226335443</v>
+      </c>
+      <c r="BK217">
+        <v>1.226335427</v>
+      </c>
+      <c r="BL217">
+        <v>1.226335442</v>
+      </c>
+      <c r="BM217">
+        <v>1.226335452</v>
       </c>
     </row>
     <row r="218" spans="1:65">
@@ -46166,8 +45356,8 @@
       <c r="BE218">
         <v>1000</v>
       </c>
-      <c r="BF218" t="s">
-        <v>710</v>
+      <c r="BF218">
+        <v>33082630</v>
       </c>
       <c r="BG218">
         <v>198136</v>
@@ -46178,17 +45368,17 @@
       <c r="BI218">
         <v>58805</v>
       </c>
-      <c r="BJ218" t="s">
-        <v>764</v>
-      </c>
-      <c r="BK218" t="s">
-        <v>818</v>
-      </c>
-      <c r="BL218" t="s">
-        <v>872</v>
-      </c>
-      <c r="BM218" t="s">
-        <v>926</v>
+      <c r="BJ218">
+        <v>1.225754182</v>
+      </c>
+      <c r="BK218">
+        <v>1.225754192</v>
+      </c>
+      <c r="BL218">
+        <v>1.225754181</v>
+      </c>
+      <c r="BM218">
+        <v>1.225754191</v>
       </c>
     </row>
     <row r="219" spans="1:65">
@@ -46363,8 +45553,8 @@
       <c r="BE219">
         <v>1000</v>
       </c>
-      <c r="BF219" t="s">
-        <v>711</v>
+      <c r="BF219">
+        <v>33082566</v>
       </c>
       <c r="BG219">
         <v>5326988</v>
@@ -46375,17 +45565,17 @@
       <c r="BI219">
         <v>58805</v>
       </c>
-      <c r="BJ219" t="s">
-        <v>765</v>
-      </c>
-      <c r="BK219" t="s">
-        <v>819</v>
-      </c>
-      <c r="BL219" t="s">
-        <v>873</v>
-      </c>
-      <c r="BM219" t="s">
-        <v>927</v>
+      <c r="BJ219">
+        <v>1.225753422</v>
+      </c>
+      <c r="BK219">
+        <v>1.225753432</v>
+      </c>
+      <c r="BL219">
+        <v>1.225753421</v>
+      </c>
+      <c r="BM219">
+        <v>1.225753431</v>
       </c>
     </row>
     <row r="220" spans="1:65">
@@ -46560,8 +45750,8 @@
       <c r="BE220">
         <v>1000</v>
       </c>
-      <c r="BF220" t="s">
-        <v>712</v>
+      <c r="BF220">
+        <v>33082581</v>
       </c>
       <c r="BG220">
         <v>36860494</v>
@@ -46572,17 +45762,17 @@
       <c r="BI220">
         <v>58805</v>
       </c>
-      <c r="BJ220" t="s">
-        <v>766</v>
-      </c>
-      <c r="BK220" t="s">
-        <v>820</v>
-      </c>
-      <c r="BL220" t="s">
-        <v>874</v>
-      </c>
-      <c r="BM220" t="s">
-        <v>928</v>
+      <c r="BJ220">
+        <v>1.225753314</v>
+      </c>
+      <c r="BK220">
+        <v>1.225753324</v>
+      </c>
+      <c r="BL220">
+        <v>1.225753313</v>
+      </c>
+      <c r="BM220">
+        <v>1.225753323</v>
       </c>
     </row>
     <row r="221" spans="1:65">
@@ -46757,8 +45947,8 @@
       <c r="BE221">
         <v>1000</v>
       </c>
-      <c r="BF221" t="s">
-        <v>713</v>
+      <c r="BF221">
+        <v>33082589</v>
       </c>
       <c r="BG221">
         <v>198124</v>
@@ -46769,17 +45959,17 @@
       <c r="BI221">
         <v>58805</v>
       </c>
-      <c r="BJ221" t="s">
-        <v>767</v>
-      </c>
-      <c r="BK221" t="s">
-        <v>821</v>
-      </c>
-      <c r="BL221" t="s">
-        <v>875</v>
-      </c>
-      <c r="BM221" t="s">
-        <v>929</v>
+      <c r="BJ221">
+        <v>1.225753206</v>
+      </c>
+      <c r="BK221">
+        <v>1.225753216</v>
+      </c>
+      <c r="BL221">
+        <v>1.225753205</v>
+      </c>
+      <c r="BM221">
+        <v>1.225753215</v>
       </c>
     </row>
     <row r="222" spans="1:65">
@@ -46954,8 +46144,8 @@
       <c r="BE222">
         <v>1000</v>
       </c>
-      <c r="BF222" t="s">
-        <v>714</v>
+      <c r="BF222">
+        <v>33174441</v>
       </c>
       <c r="BG222">
         <v>3636902</v>
@@ -46966,17 +46156,17 @@
       <c r="BI222">
         <v>58805</v>
       </c>
-      <c r="BJ222" t="s">
-        <v>768</v>
-      </c>
-      <c r="BK222" t="s">
-        <v>822</v>
-      </c>
-      <c r="BL222" t="s">
-        <v>876</v>
-      </c>
-      <c r="BM222" t="s">
-        <v>930</v>
+      <c r="BJ222">
+        <v>1.227298962</v>
+      </c>
+      <c r="BK222">
+        <v>1.227299007</v>
+      </c>
+      <c r="BL222">
+        <v>1.227299047</v>
+      </c>
+      <c r="BM222">
+        <v>1.227298971</v>
       </c>
     </row>
     <row r="223" spans="1:65">
@@ -47151,8 +46341,8 @@
       <c r="BE223">
         <v>1000</v>
       </c>
-      <c r="BF223" t="s">
-        <v>715</v>
+      <c r="BF223">
+        <v>33173857</v>
       </c>
       <c r="BG223">
         <v>48783</v>
@@ -47163,17 +46353,17 @@
       <c r="BI223">
         <v>58805</v>
       </c>
-      <c r="BJ223" t="s">
-        <v>769</v>
-      </c>
-      <c r="BK223" t="s">
-        <v>823</v>
-      </c>
-      <c r="BL223" t="s">
-        <v>877</v>
-      </c>
-      <c r="BM223" t="s">
-        <v>931</v>
+      <c r="BJ223">
+        <v>1.22728857</v>
+      </c>
+      <c r="BK223">
+        <v>1.22728858</v>
+      </c>
+      <c r="BL223">
+        <v>1.227288569</v>
+      </c>
+      <c r="BM223">
+        <v>1.227288579</v>
       </c>
     </row>
     <row r="224" spans="1:65">
@@ -47348,8 +46538,8 @@
       <c r="BE224">
         <v>1000</v>
       </c>
-      <c r="BF224" t="s">
-        <v>716</v>
+      <c r="BF224">
+        <v>33174566</v>
       </c>
       <c r="BG224">
         <v>46964</v>
@@ -47360,17 +46550,17 @@
       <c r="BI224">
         <v>58805</v>
       </c>
-      <c r="BJ224" t="s">
-        <v>770</v>
-      </c>
-      <c r="BK224" t="s">
-        <v>824</v>
-      </c>
-      <c r="BL224" t="s">
-        <v>878</v>
-      </c>
-      <c r="BM224" t="s">
-        <v>932</v>
+      <c r="BJ224">
+        <v>1.227303334</v>
+      </c>
+      <c r="BK224">
+        <v>1.227303379</v>
+      </c>
+      <c r="BL224">
+        <v>1.227303418</v>
+      </c>
+      <c r="BM224">
+        <v>1.227303343</v>
       </c>
     </row>
     <row r="225" spans="1:65">
@@ -47545,8 +46735,8 @@
       <c r="BE225">
         <v>1000</v>
       </c>
-      <c r="BF225" t="s">
-        <v>717</v>
+      <c r="BF225">
+        <v>33082597</v>
       </c>
       <c r="BG225">
         <v>10901767</v>
@@ -47557,17 +46747,17 @@
       <c r="BI225">
         <v>58805</v>
       </c>
-      <c r="BJ225" t="s">
-        <v>771</v>
-      </c>
-      <c r="BK225" t="s">
-        <v>825</v>
-      </c>
-      <c r="BL225" t="s">
-        <v>879</v>
-      </c>
-      <c r="BM225" t="s">
-        <v>933</v>
+      <c r="BJ225">
+        <v>1.22575299</v>
+      </c>
+      <c r="BK225">
+        <v>1.225753</v>
+      </c>
+      <c r="BL225">
+        <v>1.225752989</v>
+      </c>
+      <c r="BM225">
+        <v>1.225752999</v>
       </c>
     </row>
     <row r="226" spans="1:65">
@@ -47742,8 +46932,8 @@
       <c r="BE226">
         <v>1000</v>
       </c>
-      <c r="BF226" t="s">
-        <v>718</v>
+      <c r="BF226">
+        <v>33176303</v>
       </c>
       <c r="BG226">
         <v>330234</v>
@@ -47754,17 +46944,17 @@
       <c r="BI226">
         <v>58805</v>
       </c>
-      <c r="BJ226" t="s">
-        <v>772</v>
-      </c>
-      <c r="BK226" t="s">
-        <v>826</v>
-      </c>
-      <c r="BL226" t="s">
-        <v>880</v>
-      </c>
-      <c r="BM226" t="s">
-        <v>934</v>
+      <c r="BJ226">
+        <v>1.227335705</v>
+      </c>
+      <c r="BK226">
+        <v>1.22733575</v>
+      </c>
+      <c r="BL226">
+        <v>1.227335789</v>
+      </c>
+      <c r="BM226">
+        <v>1.227335714</v>
       </c>
     </row>
     <row r="227" spans="1:65">
@@ -47939,8 +47129,8 @@
       <c r="BE227">
         <v>980</v>
       </c>
-      <c r="BF227" t="s">
-        <v>719</v>
+      <c r="BF227">
+        <v>33157247</v>
       </c>
       <c r="BG227">
         <v>52290449</v>
@@ -47951,17 +47141,17 @@
       <c r="BI227">
         <v>58805</v>
       </c>
-      <c r="BJ227" t="s">
-        <v>773</v>
-      </c>
-      <c r="BK227" t="s">
-        <v>827</v>
-      </c>
-      <c r="BL227" t="s">
-        <v>881</v>
-      </c>
-      <c r="BM227" t="s">
-        <v>935</v>
+      <c r="BJ227">
+        <v>1.226979341</v>
+      </c>
+      <c r="BK227">
+        <v>1.226979351</v>
+      </c>
+      <c r="BL227">
+        <v>1.22697934</v>
+      </c>
+      <c r="BM227">
+        <v>1.22697935</v>
       </c>
     </row>
     <row r="228" spans="1:65">
@@ -48136,8 +47326,8 @@
       <c r="BE228">
         <v>1000</v>
       </c>
-      <c r="BF228" t="s">
-        <v>720</v>
+      <c r="BF228">
+        <v>33177151</v>
       </c>
       <c r="BG228">
         <v>328191</v>
@@ -48148,17 +47338,17 @@
       <c r="BI228">
         <v>58805</v>
       </c>
-      <c r="BJ228" t="s">
-        <v>774</v>
-      </c>
-      <c r="BK228" t="s">
-        <v>828</v>
-      </c>
-      <c r="BL228" t="s">
-        <v>882</v>
-      </c>
-      <c r="BM228" t="s">
-        <v>936</v>
+      <c r="BJ228">
+        <v>1.227351026</v>
+      </c>
+      <c r="BK228">
+        <v>1.227351071</v>
+      </c>
+      <c r="BL228">
+        <v>1.22735111</v>
+      </c>
+      <c r="BM228">
+        <v>1.227351035</v>
       </c>
     </row>
     <row r="229" spans="1:65">
@@ -48333,8 +47523,8 @@
       <c r="BE229">
         <v>1000</v>
       </c>
-      <c r="BF229" t="s">
-        <v>721</v>
+      <c r="BF229">
+        <v>33174532</v>
       </c>
       <c r="BG229">
         <v>1067444</v>
@@ -48345,17 +47535,17 @@
       <c r="BI229">
         <v>58805</v>
       </c>
-      <c r="BJ229" t="s">
-        <v>775</v>
-      </c>
-      <c r="BK229" t="s">
-        <v>829</v>
-      </c>
-      <c r="BL229" t="s">
-        <v>883</v>
-      </c>
-      <c r="BM229" t="s">
-        <v>937</v>
+      <c r="BJ229">
+        <v>1.227303516</v>
+      </c>
+      <c r="BK229">
+        <v>1.227303561</v>
+      </c>
+      <c r="BL229">
+        <v>1.2273036</v>
+      </c>
+      <c r="BM229">
+        <v>1.227303525</v>
       </c>
     </row>
     <row r="230" spans="1:65">
@@ -48530,8 +47720,8 @@
       <c r="BE230">
         <v>1000</v>
       </c>
-      <c r="BF230" t="s">
-        <v>722</v>
+      <c r="BF230">
+        <v>33177369</v>
       </c>
       <c r="BG230">
         <v>1213581</v>
@@ -48542,17 +47732,17 @@
       <c r="BI230">
         <v>58805</v>
       </c>
-      <c r="BJ230" t="s">
-        <v>776</v>
-      </c>
-      <c r="BK230" t="s">
-        <v>830</v>
-      </c>
-      <c r="BL230" t="s">
-        <v>884</v>
-      </c>
-      <c r="BM230" t="s">
-        <v>938</v>
+      <c r="BJ230">
+        <v>1.227353645</v>
+      </c>
+      <c r="BK230">
+        <v>1.22735369</v>
+      </c>
+      <c r="BL230">
+        <v>1.227353729</v>
+      </c>
+      <c r="BM230">
+        <v>1.227353654</v>
       </c>
     </row>
     <row r="231" spans="1:65">
@@ -48727,8 +47917,8 @@
       <c r="BE231">
         <v>1000</v>
       </c>
-      <c r="BF231" t="s">
-        <v>723</v>
+      <c r="BF231">
+        <v>33192274</v>
       </c>
       <c r="BG231">
         <v>61511713</v>
@@ -48739,17 +47929,17 @@
       <c r="BI231">
         <v>58805</v>
       </c>
-      <c r="BJ231" t="s">
-        <v>777</v>
-      </c>
-      <c r="BK231" t="s">
-        <v>831</v>
-      </c>
-      <c r="BL231" t="s">
-        <v>885</v>
-      </c>
-      <c r="BM231" t="s">
-        <v>939</v>
+      <c r="BJ231">
+        <v>1.227595868</v>
+      </c>
+      <c r="BK231">
+        <v>1.227595913</v>
+      </c>
+      <c r="BL231">
+        <v>1.227595952</v>
+      </c>
+      <c r="BM231">
+        <v>1.227595877</v>
       </c>
     </row>
     <row r="232" spans="1:65">
@@ -48924,8 +48114,8 @@
       <c r="BE232">
         <v>1000</v>
       </c>
-      <c r="BF232" t="s">
-        <v>724</v>
+      <c r="BF232">
+        <v>33181860</v>
       </c>
       <c r="BG232">
         <v>2844791</v>
@@ -48936,17 +48126,17 @@
       <c r="BI232">
         <v>58805</v>
       </c>
-      <c r="BJ232" t="s">
-        <v>778</v>
-      </c>
-      <c r="BK232" t="s">
-        <v>832</v>
-      </c>
-      <c r="BL232" t="s">
-        <v>886</v>
-      </c>
-      <c r="BM232" t="s">
-        <v>940</v>
+      <c r="BJ232">
+        <v>1.227425116</v>
+      </c>
+      <c r="BK232">
+        <v>1.227425161</v>
+      </c>
+      <c r="BL232">
+        <v>1.2274252</v>
+      </c>
+      <c r="BM232">
+        <v>1.227425125</v>
       </c>
     </row>
     <row r="233" spans="1:65">
@@ -49121,8 +48311,8 @@
       <c r="BE233">
         <v>1000</v>
       </c>
-      <c r="BF233" t="s">
-        <v>725</v>
+      <c r="BF233">
+        <v>33082602</v>
       </c>
       <c r="BG233">
         <v>5336581</v>
@@ -49133,17 +48323,17 @@
       <c r="BI233">
         <v>58805</v>
       </c>
-      <c r="BJ233" t="s">
-        <v>779</v>
-      </c>
-      <c r="BK233" t="s">
-        <v>833</v>
-      </c>
-      <c r="BL233" t="s">
-        <v>887</v>
-      </c>
-      <c r="BM233" t="s">
-        <v>941</v>
+      <c r="BJ233">
+        <v>1.225754398</v>
+      </c>
+      <c r="BK233">
+        <v>1.225754408</v>
+      </c>
+      <c r="BL233">
+        <v>1.225754397</v>
+      </c>
+      <c r="BM233">
+        <v>1.225754407</v>
       </c>
     </row>
     <row r="234" spans="1:65">
@@ -49318,8 +48508,8 @@
       <c r="BE234">
         <v>1000</v>
       </c>
-      <c r="BF234" t="s">
-        <v>726</v>
+      <c r="BF234">
+        <v>33185440</v>
       </c>
       <c r="BG234">
         <v>712865</v>
@@ -49330,17 +48520,17 @@
       <c r="BI234">
         <v>58805</v>
       </c>
-      <c r="BJ234" t="s">
-        <v>780</v>
-      </c>
-      <c r="BK234" t="s">
-        <v>834</v>
-      </c>
-      <c r="BL234" t="s">
-        <v>888</v>
-      </c>
-      <c r="BM234" t="s">
-        <v>942</v>
+      <c r="BJ234">
+        <v>1.227477014</v>
+      </c>
+      <c r="BK234">
+        <v>1.227477059</v>
+      </c>
+      <c r="BL234">
+        <v>1.227477098</v>
+      </c>
+      <c r="BM234">
+        <v>1.227477023</v>
       </c>
     </row>
     <row r="235" spans="1:65">
@@ -49515,8 +48705,8 @@
       <c r="BE235">
         <v>1000</v>
       </c>
-      <c r="BF235" t="s">
-        <v>727</v>
+      <c r="BF235">
+        <v>33177146</v>
       </c>
       <c r="BG235">
         <v>27767097</v>
@@ -49527,17 +48717,17 @@
       <c r="BI235">
         <v>58805</v>
       </c>
-      <c r="BJ235" t="s">
-        <v>781</v>
-      </c>
-      <c r="BK235" t="s">
-        <v>835</v>
-      </c>
-      <c r="BL235" t="s">
-        <v>889</v>
-      </c>
-      <c r="BM235" t="s">
-        <v>943</v>
+      <c r="BJ235">
+        <v>1.227351116</v>
+      </c>
+      <c r="BK235">
+        <v>1.227351161</v>
+      </c>
+      <c r="BL235">
+        <v>1.2273512</v>
+      </c>
+      <c r="BM235">
+        <v>1.227351125</v>
       </c>
     </row>
     <row r="236" spans="1:65">
@@ -49712,8 +48902,8 @@
       <c r="BE236">
         <v>1000</v>
       </c>
-      <c r="BF236" t="s">
-        <v>728</v>
+      <c r="BF236">
+        <v>33177371</v>
       </c>
       <c r="BG236">
         <v>19641049</v>
@@ -49724,17 +48914,17 @@
       <c r="BI236">
         <v>58805</v>
       </c>
-      <c r="BJ236" t="s">
-        <v>782</v>
-      </c>
-      <c r="BK236" t="s">
-        <v>836</v>
-      </c>
-      <c r="BL236" t="s">
-        <v>890</v>
-      </c>
-      <c r="BM236" t="s">
-        <v>944</v>
+      <c r="BJ236">
+        <v>1.227353464</v>
+      </c>
+      <c r="BK236">
+        <v>1.227353509</v>
+      </c>
+      <c r="BL236">
+        <v>1.227353548</v>
+      </c>
+      <c r="BM236">
+        <v>1.227353473</v>
       </c>
     </row>
     <row r="237" spans="1:65">
@@ -49909,8 +49099,8 @@
       <c r="BE237">
         <v>1000</v>
       </c>
-      <c r="BF237" t="s">
-        <v>729</v>
+      <c r="BF237">
+        <v>33174903</v>
       </c>
       <c r="BG237">
         <v>44232344</v>
@@ -49921,17 +49111,17 @@
       <c r="BI237">
         <v>58805</v>
       </c>
-      <c r="BJ237" t="s">
-        <v>783</v>
-      </c>
-      <c r="BK237" t="s">
-        <v>837</v>
-      </c>
-      <c r="BL237" t="s">
-        <v>891</v>
-      </c>
-      <c r="BM237" t="s">
-        <v>945</v>
+      <c r="BJ237">
+        <v>1.227308201</v>
+      </c>
+      <c r="BK237">
+        <v>1.227308246</v>
+      </c>
+      <c r="BL237">
+        <v>1.227308285</v>
+      </c>
+      <c r="BM237">
+        <v>1.22730821</v>
       </c>
     </row>
     <row r="238" spans="1:65">
@@ -50106,8 +49296,8 @@
       <c r="BE238">
         <v>1000</v>
       </c>
-      <c r="BF238" t="s">
-        <v>730</v>
+      <c r="BF238">
+        <v>33174331</v>
       </c>
       <c r="BG238">
         <v>478919</v>
@@ -50118,17 +49308,17 @@
       <c r="BI238">
         <v>58805</v>
       </c>
-      <c r="BJ238" t="s">
-        <v>784</v>
-      </c>
-      <c r="BK238" t="s">
-        <v>838</v>
-      </c>
-      <c r="BL238" t="s">
-        <v>892</v>
-      </c>
-      <c r="BM238" t="s">
-        <v>946</v>
+      <c r="BJ238">
+        <v>1.227299072</v>
+      </c>
+      <c r="BK238">
+        <v>1.227299117</v>
+      </c>
+      <c r="BL238">
+        <v>1.227299156</v>
+      </c>
+      <c r="BM238">
+        <v>1.227299081</v>
       </c>
     </row>
     <row r="239" spans="1:65">
@@ -50303,8 +49493,8 @@
       <c r="BE239">
         <v>1000</v>
       </c>
-      <c r="BF239" t="s">
-        <v>731</v>
+      <c r="BF239">
+        <v>33190711</v>
       </c>
       <c r="BG239">
         <v>5885611</v>
@@ -50315,17 +49505,17 @@
       <c r="BI239">
         <v>58805</v>
       </c>
-      <c r="BJ239" t="s">
-        <v>785</v>
-      </c>
-      <c r="BK239" t="s">
-        <v>839</v>
-      </c>
-      <c r="BL239" t="s">
-        <v>893</v>
-      </c>
-      <c r="BM239" t="s">
-        <v>947</v>
+      <c r="BJ239">
+        <v>1.227577817</v>
+      </c>
+      <c r="BK239">
+        <v>1.227577862</v>
+      </c>
+      <c r="BL239">
+        <v>1.227577901</v>
+      </c>
+      <c r="BM239">
+        <v>1.227577826</v>
       </c>
     </row>
     <row r="240" spans="1:65">
@@ -50500,8 +49690,8 @@
       <c r="BE240">
         <v>1000</v>
       </c>
-      <c r="BF240" t="s">
-        <v>732</v>
+      <c r="BF240">
+        <v>33174994</v>
       </c>
       <c r="BG240">
         <v>2295419</v>
@@ -50512,17 +49702,17 @@
       <c r="BI240">
         <v>58805</v>
       </c>
-      <c r="BJ240" t="s">
-        <v>786</v>
-      </c>
-      <c r="BK240" t="s">
-        <v>840</v>
-      </c>
-      <c r="BL240" t="s">
-        <v>894</v>
-      </c>
-      <c r="BM240" t="s">
-        <v>948</v>
+      <c r="BJ240">
+        <v>1.227308851</v>
+      </c>
+      <c r="BK240">
+        <v>1.227308896</v>
+      </c>
+      <c r="BL240">
+        <v>1.227308935</v>
+      </c>
+      <c r="BM240">
+        <v>1.22730886</v>
       </c>
     </row>
     <row r="241" spans="1:65">
@@ -50697,8 +49887,8 @@
       <c r="BE241">
         <v>1000</v>
       </c>
-      <c r="BF241" t="s">
-        <v>733</v>
+      <c r="BF241">
+        <v>33155532</v>
       </c>
       <c r="BG241">
         <v>328955</v>
@@ -50709,17 +49899,17 @@
       <c r="BI241">
         <v>58805</v>
       </c>
-      <c r="BJ241" t="s">
-        <v>787</v>
-      </c>
-      <c r="BK241" t="s">
-        <v>841</v>
-      </c>
-      <c r="BL241" t="s">
-        <v>895</v>
-      </c>
-      <c r="BM241" t="s">
-        <v>949</v>
+      <c r="BJ241">
+        <v>1.226947513</v>
+      </c>
+      <c r="BK241">
+        <v>1.226947558</v>
+      </c>
+      <c r="BL241">
+        <v>1.226947597</v>
+      </c>
+      <c r="BM241">
+        <v>1.226947522</v>
       </c>
     </row>
     <row r="242" spans="1:65">
@@ -50894,8 +50084,8 @@
       <c r="BE242">
         <v>1000</v>
       </c>
-      <c r="BF242" t="s">
-        <v>734</v>
+      <c r="BF242">
+        <v>33155486</v>
       </c>
       <c r="BG242">
         <v>328950</v>
@@ -50906,17 +50096,17 @@
       <c r="BI242">
         <v>58805</v>
       </c>
-      <c r="BJ242" t="s">
-        <v>788</v>
-      </c>
-      <c r="BK242" t="s">
-        <v>842</v>
-      </c>
-      <c r="BL242" t="s">
-        <v>896</v>
-      </c>
-      <c r="BM242" t="s">
-        <v>950</v>
+      <c r="BJ242">
+        <v>1.226947153</v>
+      </c>
+      <c r="BK242">
+        <v>1.226947198</v>
+      </c>
+      <c r="BL242">
+        <v>1.226947237</v>
+      </c>
+      <c r="BM242">
+        <v>1.226947162</v>
       </c>
     </row>
     <row r="243" spans="1:65">
@@ -51091,8 +50281,8 @@
       <c r="BE243">
         <v>1000</v>
       </c>
-      <c r="BF243" t="s">
-        <v>735</v>
+      <c r="BF243">
+        <v>33181872</v>
       </c>
       <c r="BG243">
         <v>335852</v>
@@ -51103,17 +50293,17 @@
       <c r="BI243">
         <v>58805</v>
       </c>
-      <c r="BJ243" t="s">
-        <v>789</v>
-      </c>
-      <c r="BK243" t="s">
-        <v>843</v>
-      </c>
-      <c r="BL243" t="s">
-        <v>897</v>
-      </c>
-      <c r="BM243" t="s">
-        <v>951</v>
+      <c r="BJ243">
+        <v>1.227425446</v>
+      </c>
+      <c r="BK243">
+        <v>1.227425491</v>
+      </c>
+      <c r="BL243">
+        <v>1.22742553</v>
+      </c>
+      <c r="BM243">
+        <v>1.227425455</v>
       </c>
     </row>
     <row r="244" spans="1:65">
@@ -51288,8 +50478,8 @@
       <c r="BE244">
         <v>1000</v>
       </c>
-      <c r="BF244" t="s">
-        <v>736</v>
+      <c r="BF244">
+        <v>33177141</v>
       </c>
       <c r="BG244">
         <v>219457</v>
@@ -51300,17 +50490,17 @@
       <c r="BI244">
         <v>58805</v>
       </c>
-      <c r="BJ244" t="s">
-        <v>790</v>
-      </c>
-      <c r="BK244" t="s">
-        <v>844</v>
-      </c>
-      <c r="BL244" t="s">
-        <v>898</v>
-      </c>
-      <c r="BM244" t="s">
-        <v>952</v>
+      <c r="BJ244">
+        <v>1.227351206</v>
+      </c>
+      <c r="BK244">
+        <v>1.227351251</v>
+      </c>
+      <c r="BL244">
+        <v>1.22735129</v>
+      </c>
+      <c r="BM244">
+        <v>1.227351215</v>
       </c>
     </row>
     <row r="245" spans="1:65">
@@ -51485,8 +50675,8 @@
       <c r="BE245">
         <v>1000</v>
       </c>
-      <c r="BF245" t="s">
-        <v>737</v>
+      <c r="BF245">
+        <v>33185443</v>
       </c>
       <c r="BG245">
         <v>3738659</v>
@@ -51497,17 +50687,17 @@
       <c r="BI245">
         <v>58805</v>
       </c>
-      <c r="BJ245" t="s">
-        <v>791</v>
-      </c>
-      <c r="BK245" t="s">
-        <v>845</v>
-      </c>
-      <c r="BL245" t="s">
-        <v>899</v>
-      </c>
-      <c r="BM245" t="s">
-        <v>953</v>
+      <c r="BJ245">
+        <v>1.227477104</v>
+      </c>
+      <c r="BK245">
+        <v>1.227477149</v>
+      </c>
+      <c r="BL245">
+        <v>1.227477188</v>
+      </c>
+      <c r="BM245">
+        <v>1.227477113</v>
       </c>
     </row>
     <row r="246" spans="1:65">
@@ -51682,8 +50872,8 @@
       <c r="BE246">
         <v>1000</v>
       </c>
-      <c r="BF246" t="s">
-        <v>738</v>
+      <c r="BF246">
+        <v>33174503</v>
       </c>
       <c r="BG246">
         <v>5615116</v>
@@ -51694,17 +50884,17 @@
       <c r="BI246">
         <v>58805</v>
       </c>
-      <c r="BJ246" t="s">
-        <v>792</v>
-      </c>
-      <c r="BK246" t="s">
-        <v>846</v>
-      </c>
-      <c r="BL246" t="s">
-        <v>900</v>
-      </c>
-      <c r="BM246" t="s">
-        <v>954</v>
+      <c r="BJ246">
+        <v>1.227303606</v>
+      </c>
+      <c r="BK246">
+        <v>1.227303651</v>
+      </c>
+      <c r="BL246">
+        <v>1.22730369</v>
+      </c>
+      <c r="BM246">
+        <v>1.227303615</v>
       </c>
     </row>
     <row r="247" spans="1:65">
@@ -51879,8 +51069,8 @@
       <c r="BE247">
         <v>1000</v>
       </c>
-      <c r="BF247" t="s">
-        <v>739</v>
+      <c r="BF247">
+        <v>33155518</v>
       </c>
       <c r="BG247">
         <v>10002706</v>
@@ -51891,17 +51081,17 @@
       <c r="BI247">
         <v>58805</v>
       </c>
-      <c r="BJ247" t="s">
-        <v>793</v>
-      </c>
-      <c r="BK247" t="s">
-        <v>847</v>
-      </c>
-      <c r="BL247" t="s">
-        <v>901</v>
-      </c>
-      <c r="BM247" t="s">
-        <v>955</v>
+      <c r="BJ247">
+        <v>1.226947333</v>
+      </c>
+      <c r="BK247">
+        <v>1.226947378</v>
+      </c>
+      <c r="BL247">
+        <v>1.226947417</v>
+      </c>
+      <c r="BM247">
+        <v>1.226947342</v>
       </c>
     </row>
   </sheetData>
